--- a/published-data/fonds-solidarite/fds-2020-12-29/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-29/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -37662,10 +37662,10 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>26422</v>
+        <v>26423</v>
       </c>
       <c r="D778" t="n">
-        <v>48996095</v>
+        <v>48997533</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -59158,10 +59158,10 @@
         </is>
       </c>
       <c r="C1226" t="n">
-        <v>10837</v>
+        <v>10836</v>
       </c>
       <c r="D1226" t="n">
-        <v>19714783</v>
+        <v>19713345</v>
       </c>
       <c r="E1226" t="inlineStr">
         <is>
@@ -60886,10 +60886,10 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>5861</v>
+        <v>5862</v>
       </c>
       <c r="D1262" t="n">
-        <v>14076987</v>
+        <v>14081203</v>
       </c>
       <c r="E1262" t="inlineStr">
         <is>
@@ -80998,10 +80998,10 @@
         </is>
       </c>
       <c r="C1681" t="n">
-        <v>39245</v>
+        <v>39246</v>
       </c>
       <c r="D1681" t="n">
-        <v>77342733</v>
+        <v>77343451</v>
       </c>
       <c r="E1681" t="inlineStr">
         <is>
@@ -81046,10 +81046,10 @@
         </is>
       </c>
       <c r="C1682" t="n">
-        <v>15946</v>
+        <v>15945</v>
       </c>
       <c r="D1682" t="n">
-        <v>30831128</v>
+        <v>30830410</v>
       </c>
       <c r="E1682" t="inlineStr">
         <is>
